--- a/hello.xlsx
+++ b/hello.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="455">
   <si>
     <t>标题</t>
   </si>
@@ -1317,6 +1317,69 @@
   </si>
   <si>
     <t>2018-09-12 11:50:12</t>
+  </si>
+  <si>
+    <t>超温暖治愈游戏安利❤墙裂！推荐</t>
+  </si>
+  <si>
+    <t>&lt;p class="ql-align-justify"&gt;1️⃣喜欢和你在一起&lt;/p&gt;&lt;p class="ql-align-justify"&gt;这个名字听起来就很温暖很可爱。这个游戏时是需要控制一只兔子和另一只兔子绕月球追逐转圈，他们必须不断相互碰触，必须要一直在一起，这样才能一直绕月球转圈。背景音乐也很甜美很治愈。心情不好的时候玩一玩治愈能力超好！&lt;/p&gt;&lt;p class="ql-align-justify"&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://b-ssl.duitang.com/uploads/item/201809/14/20180914145732_mUrjk.thumb.600_1067_c.jpeg"&gt;&lt;/p&gt;&lt;p class="ql-align-justify"&gt;2️⃣我们相距十万光年&lt;/p&gt;&lt;p class="ql-align-justify"&gt;如果你心情不好，想一个人静静的时候，可以玩玩这个游戏。游戏里的原创纯音乐几乎拥有瞬间治愈的效果。操作很简单，就是控制光线在夜空中从一颗星飞向另一颗星&lt;/p&gt;&lt;p class="ql-align-justify"&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://b-ssl.duitang.com/uploads/item/201809/14/20180914150255_GVMJf.thumb.600_1067_c.jpeg"&gt;&lt;/p&gt;&lt;p class="ql-align-justify"&gt;3️⃣Neko Atsume：kitty collector（猫咪后院）&lt;/p&gt;&lt;p class="ql-align-justify"&gt;这个游戏不需要花很多时间，基本上每天只要添两三次猫粮加签到就可以了。一直盯着屏幕反而不会有猫咪进来。学习工作休闲之余进入后院，看见一院子的猫咪简直瞬间被治愈萌化！有足够的小鱼干之后还可以扩建换场景什么的简直不要太赞！&lt;/p&gt;&lt;p class="ql-align-justify"&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://b-ssl.duitang.com/uploads/item/201809/14/20180914150323_CKFvn.thumb.600_1067_c.jpeg"&gt;&lt;/p&gt;&lt;p class="ql-align-justify"&gt;4️⃣食堂故事&lt;/p&gt;&lt;p class="ql-align-justify"&gt;这是一个很简短的小游戏，两三天就可以玩到结局。但是这也是一个很悲情、很温暖的游戏。如果世上有你牵挂的人，那就马不停蹄去看他；如果世上有你怨恨的人，也尝试着放下吧。要坚强乐观、要努力长大……&lt;/p&gt;&lt;p class="ql-align-justify"&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://b-ssl.duitang.com/uploads/item/201809/14/20180914150340_uhv5j.thumb.600_1067_c.jpeg"&gt;&lt;/p&gt;&lt;p class="ql-align-justify"&gt;5️⃣我在七年后等着你&lt;/p&gt;&lt;p class="ql-align-justify"&gt;属于叙事类游戏。主角是一名失去记忆的男孩，通过生活中的情景开始寻找记忆中的碎片，需要通过解谜来获得自己所需的各类物品，通过一些细微的线索发现并寻找到答案！为了要寻找失去的记忆和约定，必须历经艰险完成对应关卡。完全免费，可以一口气玩到最后，也没有体力等要素。&lt;/p&gt;&lt;p class="ql-align-justify"&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://b-ssl.duitang.com/uploads/item/201809/14/20180914150355_UcF3f.thumb.600_1067_c.jpeg"&gt;&lt;/p&gt;&lt;p class="ql-align-justify"&gt;6️⃣深海水族馆&lt;/p&gt;&lt;p class="ql-align-justify"&gt;音乐很治愈啊，画面也很美！故事从深海里的一块寂寞的石头开始，在石头周围养珊瑚，然后用爱心养成各种各样的鱼类。退出游戏也会一直积累爱心，懒人必备。有空的话每天很多日常任务和成就要完成，会有额外奖励！&lt;/p&gt;&lt;p class="ql-align-justify"&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://b-ssl.duitang.com/uploads/item/201809/14/20180914150418_JAdLz.thumb.600_1067_c.jpeg"&gt;&lt;/p&gt;&lt;p class="ql-align-justify"&gt;7️⃣Florence&lt;/p&gt;&lt;p class="ql-align-justify"&gt;“有那么一瞬间，爱情改变了世界，也改变了你”&lt;/p&gt;&lt;p class="ql-align-justify"&gt;与其说它是一款游戏，不如说是一本互动故事书，出自纪念碑谷首席设计师之手，将一个女孩初恋故事里令人心动的甜蜜和让人心碎的低谷娓娓道来。强烈安利大家自己去体验这个游戏，不论是画风还是背景音乐都十分考究，故事也十分动人。每个人玩都会有自己不同的感受。&lt;/p&gt;&lt;p class="ql-align-justify"&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://b-ssl.duitang.com/uploads/item/201809/14/20180914150501_BkZwR.thumb.600_1067_c.jpeg"&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>2018-09-18 14:59:44</t>
+  </si>
+  <si>
+    <t>嘟嘟嘟</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;了啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>2018-09-18 15:04:54</t>
+  </si>
+  <si>
+    <t>这些 ins 极简摄影师的照片，视觉控看了都想收藏！</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;文章版权归作者所有，任何形式转载请联系作者。&lt;/p&gt;&lt;p&gt;作者：旅拍誌&lt;/p&gt;&lt;p&gt;来源：堆糖&lt;/p&gt;&lt;p&gt;链接：http://www.duitang.com/article/?id=655763&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;大噶好~&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;今天旅拍君带你们走进极简摄影的世界&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;我们常常在拍照时&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;总想把所有东西都塞进照片里&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;殊不知那些不肯舍弃的元素&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;造成画面混乱、主体不突出&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;其实&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;摄影是道减法题&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;以下几位ins摄影师就非常擅长做这道减法题&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;他们是构图偏执狂和十足的色彩控&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;他们创作的极简摄影简约而不简单&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;cianogrigio&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;这位instagramer原名叫Stefano Cirillo&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;是艺术家、插画家、图形设计师&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;墙壁、窗户、路标、管道等是他照片中的常见元素&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;浏览照片墙就会发现他的作品风格高度统一&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;把减法的艺术表现得淋漓尽致&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;每幅画面都遵循着严谨的秩序&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>2018-09-18 19:51:45</t>
+  </si>
+  <si>
+    <t>腾讯回应吃鸡游戏下架系谣言 该类游戏何时赢利仍未可知</t>
+  </si>
+  <si>
+    <t>&lt;p class="ql-align-justify"&gt;腾讯目前有两款吃鸡游戏，分别为《绝地求生：刺激战场》和《绝地求生：全军出击》。“吃鸡”游戏是腾讯继爆款游戏《王者荣耀》之后另一类寄予厚望的游戏，但由于目前为止未能获得版号，投入重金后的“吃鸡”游戏至今未能产生直接游戏收入。&lt;/p&gt;&lt;p class="ql-align-justify"&gt;根据今年二季度腾讯财报，腾讯手机游戏同比增长19%，环比下降19%。腾讯方面认为，主要是由于热门战术竞技类游戏尚未商业化及新游戏的发布排期的影响。手游业务中，腾讯曾经的王牌游戏《王者荣耀》已经过了丰收期，今年重点投入的《绝地求生》尚未表现出优秀变现能力。&lt;/p&gt;&lt;p class="ql-align-justify"&gt;之前对“吃鸡”游戏寄予厚望的不止腾讯一家游戏公司。今年年初，小米、网易、腾讯都推出吃鸡类游戏，网易在腾讯之前推出“吃鸡”游戏《荒野行动》，并投入上亿元资源进行推广，吸引大批枪战类游戏用户来到到网易的平台上。随后腾讯推出《绝地求生：刺激战场》和《绝地求生：全军出击》，将用户重新拉回腾讯平台。&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>2018-09-20 09:20:57</t>
+  </si>
+  <si>
+    <t>小米 8 青春版、屏幕指纹版体验：镜面渐变色，1399 起的「小米式」定价</t>
+  </si>
+  <si>
+    <t>&lt;p class="ql-align-justify"&gt;在小米手机的产品序列里，「数字系列」是关注度最高的一条产品线，也是小米过去几年里在 2000-3000 元这个价格档上的拳头产品，主打卖点是媲美旗舰手机的配置和很高的性价比。&lt;/p&gt;&lt;p class="ql-align-justify"&gt;&lt;br&gt;&lt;/p&gt;&lt;p class="ql-align-justify"&gt;今年也是如此，5 月底发布的小米 8 至今仍是售价最低的骁龙 845 手机之一（排除原价很难买到的魅族 16 和国内没上市的 Poco Phone，这个「之一」可以去掉）。&lt;/p&gt;&lt;p class="ql-align-justify"&gt;不过和往年不同的是，今年小米把「数字系列」拓展成了一个系列，除了小米 8，还推出了搭载屏幕指纹、3D 结构光的小米 8 透明探索版以及首发骁龙 710、屏幕尺寸稍小的小米 8 SE。&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>2018-09-20 09:22:34</t>
+  </si>
+  <si>
+    <t>sadsa</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;safdsafdsfsdfsd幸福感的非官方的&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>2018-09-20 09:23:32</t>
+  </si>
+  <si>
+    <t>要像连大比一样活着</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;嘟嘟嘟嘟嘟嘟的&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>2018-09-20 11:57:26</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1718,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4600,6 +4663,104 @@
         <v>433</v>
       </c>
       <c r="D210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>434</v>
+      </c>
+      <c r="B211" t="s">
+        <v>435</v>
+      </c>
+      <c r="C211" t="s">
+        <v>436</v>
+      </c>
+      <c r="D211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>437</v>
+      </c>
+      <c r="B212" t="s">
+        <v>438</v>
+      </c>
+      <c r="C212" t="s">
+        <v>439</v>
+      </c>
+      <c r="D212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>440</v>
+      </c>
+      <c r="B213" t="s">
+        <v>441</v>
+      </c>
+      <c r="C213" t="s">
+        <v>442</v>
+      </c>
+      <c r="D213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>443</v>
+      </c>
+      <c r="B214" t="s">
+        <v>444</v>
+      </c>
+      <c r="C214" t="s">
+        <v>445</v>
+      </c>
+      <c r="D214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>446</v>
+      </c>
+      <c r="B215" t="s">
+        <v>447</v>
+      </c>
+      <c r="C215" t="s">
+        <v>448</v>
+      </c>
+      <c r="D215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>449</v>
+      </c>
+      <c r="B216" t="s">
+        <v>450</v>
+      </c>
+      <c r="C216" t="s">
+        <v>451</v>
+      </c>
+      <c r="D216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>452</v>
+      </c>
+      <c r="B217" t="s">
+        <v>453</v>
+      </c>
+      <c r="C217" t="s">
+        <v>454</v>
+      </c>
+      <c r="D217" t="s">
         <v>7</v>
       </c>
     </row>
